--- a/60Missions.xlsx
+++ b/60Missions.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Magneton\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="75" windowWidth="11475" windowHeight="7230" firstSheet="8" activeTab="10"/>
   </bookViews>
@@ -477,6 +482,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -524,7 +532,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -559,7 +567,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -11003,10 +11011,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E87"/>
+  <dimension ref="A1:E97"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E87"/>
+      <selection activeCell="A3" sqref="A3:E93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11050,16 +11058,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="E3">
-        <v>2.0804146221366548</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -11067,16 +11075,16 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>2.0804146221366548</v>
+        <v>5.25</v>
       </c>
       <c r="E4">
-        <v>8.4804146221366548</v>
+        <v>5.5069444444444446</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -11084,16 +11092,16 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>8.4804146221366548</v>
+        <v>5.5069444444444446</v>
       </c>
       <c r="E5">
-        <v>8.4804146221366548</v>
+        <v>6.5069444444444446</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -11101,16 +11109,16 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>8.4804146221366548</v>
+        <v>6.5069444444444446</v>
       </c>
       <c r="E6">
-        <v>14.880414622136655</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -11127,7 +11135,7 @@
         <v>8.5</v>
       </c>
       <c r="E7">
-        <v>11.5</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -11141,27 +11149,27 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>11.5</v>
+        <v>9.5</v>
       </c>
       <c r="E8">
-        <v>13.580414622136654</v>
+        <v>9.7083333333333339</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
         <v>2</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
       <c r="D9">
-        <v>2.494800677650963</v>
+        <v>9.7083333333333339</v>
       </c>
       <c r="E9">
-        <v>4</v>
+        <v>17.708333333333336</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -11169,16 +11177,16 @@
         <v>2</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10">
-        <v>4</v>
+        <v>6.75</v>
       </c>
       <c r="E10">
-        <v>10.4</v>
+        <v>8.25</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -11186,84 +11194,84 @@
         <v>2</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D11">
-        <v>10.4</v>
+        <v>7.5</v>
       </c>
       <c r="E11">
-        <v>11.905199322349038</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D12">
-        <v>2.9195853778633452</v>
+        <v>8.25</v>
       </c>
       <c r="E12">
-        <v>5</v>
+        <v>9.25</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>5</v>
+        <v>9.25</v>
       </c>
       <c r="E13">
-        <v>5.9</v>
+        <v>9.3263888888888893</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D14">
-        <v>6.3617080997780064</v>
+        <v>9.3263888888888893</v>
       </c>
       <c r="E14">
-        <v>7.25</v>
+        <v>11.076388888888889</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B15">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="C15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15">
-        <v>7.25</v>
+        <v>11.076388888888889</v>
       </c>
       <c r="E15">
-        <v>8.15</v>
+        <v>12.326388888888889</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -11271,16 +11279,16 @@
         <v>3</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>8.15</v>
+        <v>2</v>
       </c>
       <c r="E16">
-        <v>8.5250000000000004</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -11288,16 +11296,16 @@
         <v>3</v>
       </c>
       <c r="B17">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>8.5250000000000004</v>
+        <v>10</v>
       </c>
       <c r="E17">
-        <v>9.4250000000000007</v>
+        <v>11.75</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -11305,186 +11313,186 @@
         <v>3</v>
       </c>
       <c r="B18">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18">
-        <v>8.5250000000000004</v>
+        <v>11.75</v>
       </c>
       <c r="E18">
-        <v>9.4250000000000007</v>
+        <v>12.75</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
+        <v>4</v>
+      </c>
+      <c r="B19">
         <v>3</v>
       </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
       <c r="C19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D19">
-        <v>9.4250000000000007</v>
+        <v>4</v>
       </c>
       <c r="E19">
-        <v>9.6954163456597993</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B20">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>9.6954163456597993</v>
+        <v>12</v>
       </c>
       <c r="E20">
-        <v>10.7454163456598</v>
+        <v>12.208333333333334</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D21">
-        <v>10.7454163456598</v>
+        <v>12.208333333333334</v>
       </c>
       <c r="E21">
-        <v>13.063618774266931</v>
+        <v>13.708333333333334</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
+        <v>5</v>
+      </c>
+      <c r="B22">
+        <v>7</v>
+      </c>
+      <c r="C22">
+        <v>6</v>
+      </c>
+      <c r="D22">
         <v>4</v>
       </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>4.1554745135188975</v>
-      </c>
       <c r="E22">
-        <v>6.75</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B23">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
         <v>5</v>
       </c>
-      <c r="D23">
-        <v>6.75</v>
-      </c>
       <c r="E23">
-        <v>7.65</v>
+        <v>7.25</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D24">
-        <v>9.5500000000000007</v>
+        <v>7.25</v>
       </c>
       <c r="E24">
-        <v>10</v>
+        <v>8.25</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B25">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C25">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>10</v>
+        <v>8.25</v>
       </c>
       <c r="E25">
-        <v>11.05</v>
+        <v>8.375</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D26">
-        <v>11.312678607886603</v>
+        <v>8.375</v>
       </c>
       <c r="E26">
-        <v>11.75</v>
+        <v>10.125</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B27">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="C27">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>11.75</v>
+        <v>10.125</v>
       </c>
       <c r="E27">
-        <v>12.65</v>
+        <v>10.173611111111111</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D28">
-        <v>12.65</v>
+        <v>10.173611111111111</v>
       </c>
       <c r="E28">
-        <v>14.858860000090544</v>
+        <v>11.923611111111111</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -11498,7 +11506,7 @@
         <v>0</v>
       </c>
       <c r="D29">
-        <v>11.899032960753548</v>
+        <v>11.923611111111111</v>
       </c>
       <c r="E29">
         <v>14</v>
@@ -11509,16 +11517,16 @@
         <v>5</v>
       </c>
       <c r="B30">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C30">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D30">
         <v>14</v>
       </c>
       <c r="E30">
-        <v>14.9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -11526,16 +11534,16 @@
         <v>5</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D31">
-        <v>14.9</v>
+        <v>14</v>
       </c>
       <c r="E31">
-        <v>16.047279390558376</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -11543,16 +11551,16 @@
         <v>5</v>
       </c>
       <c r="B32">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C32">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D32">
-        <v>16.047279390558376</v>
+        <v>15</v>
       </c>
       <c r="E32">
-        <v>16.947279390558375</v>
+        <v>15.104166666666666</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -11560,16 +11568,16 @@
         <v>5</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D33">
-        <v>16.947279390558375</v>
+        <v>15.104166666666666</v>
       </c>
       <c r="E33">
-        <v>17.592453785586571</v>
+        <v>16.104166666666664</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -11577,16 +11585,16 @@
         <v>5</v>
       </c>
       <c r="B34">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C34">
         <v>5</v>
       </c>
       <c r="D34">
-        <v>17.592453785586571</v>
+        <v>15.25</v>
       </c>
       <c r="E34">
-        <v>18.192453785586572</v>
+        <v>16.25</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -11600,10 +11608,10 @@
         <v>0</v>
       </c>
       <c r="D35">
-        <v>18.41458980337503</v>
+        <v>16.25</v>
       </c>
       <c r="E35">
-        <v>18.75</v>
+        <v>16.583333333333332</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -11611,16 +11619,16 @@
         <v>5</v>
       </c>
       <c r="B36">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C36">
         <v>5</v>
       </c>
       <c r="D36">
-        <v>18.75</v>
+        <v>16.583333333333332</v>
       </c>
       <c r="E36">
-        <v>19.350000000000001</v>
+        <v>17.583333333333332</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -11628,21 +11636,21 @@
         <v>5</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D37">
-        <v>19.350000000000001</v>
+        <v>17</v>
       </c>
       <c r="E37">
-        <v>21.724144582791876</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -11651,32 +11659,32 @@
         <v>0</v>
       </c>
       <c r="D38">
-        <v>14.494800677650963</v>
+        <v>18</v>
       </c>
       <c r="E38">
-        <v>16</v>
+        <v>18.75</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B39">
+        <v>49</v>
+      </c>
+      <c r="C39">
         <v>5</v>
       </c>
-      <c r="C39">
-        <v>2</v>
-      </c>
       <c r="D39">
-        <v>16</v>
+        <v>18.75</v>
       </c>
       <c r="E39">
-        <v>22.4</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -11685,27 +11693,27 @@
         <v>0</v>
       </c>
       <c r="D40">
-        <v>22.4</v>
+        <v>20.5</v>
       </c>
       <c r="E40">
-        <v>22.4</v>
+        <v>20.715277777777779</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B41">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C41">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D41">
-        <v>22.4</v>
+        <v>20.715277777777779</v>
       </c>
       <c r="E41">
-        <v>28.799999999999997</v>
+        <v>21.965277777777779</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -11713,21 +11721,21 @@
         <v>6</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D42">
-        <v>28.799999999999997</v>
+        <v>14.5</v>
       </c>
       <c r="E42">
-        <v>30.305199322349033</v>
+        <v>15.75</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -11736,32 +11744,32 @@
         <v>0</v>
       </c>
       <c r="D43">
-        <v>16.863892547713579</v>
+        <v>15.75</v>
       </c>
       <c r="E43">
-        <v>19.5</v>
+        <v>18.75</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B44">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C44">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D44">
-        <v>19.5</v>
+        <v>18.75</v>
       </c>
       <c r="E44">
-        <v>20.399999999999999</v>
+        <v>19.75</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -11770,27 +11778,27 @@
         <v>0</v>
       </c>
       <c r="D45">
-        <v>20.399999999999999</v>
+        <v>19.75</v>
       </c>
       <c r="E45">
-        <v>20.782426463519457</v>
+        <v>19.9375</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B46">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C46">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D46">
-        <v>20.782426463519457</v>
+        <v>19.9375</v>
       </c>
       <c r="E46">
-        <v>21.532426463519457</v>
+        <v>27.9375</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -11798,21 +11806,21 @@
         <v>7</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D47">
-        <v>21.532426463519457</v>
+        <v>14.25</v>
       </c>
       <c r="E47">
-        <v>23.850628892126586</v>
+        <v>15.25</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -11821,32 +11829,32 @@
         <v>0</v>
       </c>
       <c r="D48">
-        <v>16.244800677650964</v>
+        <v>15.25</v>
       </c>
       <c r="E48">
-        <v>17.75</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B49">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C49">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D49">
-        <v>17.75</v>
+        <v>19.5</v>
       </c>
       <c r="E49">
-        <v>18.649999999999999</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -11855,27 +11863,27 @@
         <v>0</v>
       </c>
       <c r="D50">
-        <v>18.649999999999999</v>
+        <v>20.5</v>
       </c>
       <c r="E50">
-        <v>19.321984002785779</v>
+        <v>20.736111111111111</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B51">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="C51">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D51">
-        <v>19.321984002785779</v>
+        <v>20.736111111111111</v>
       </c>
       <c r="E51">
-        <v>20.221984002785778</v>
+        <v>21.736111111111111</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -11883,16 +11891,16 @@
         <v>8</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D52">
-        <v>20.221984002785778</v>
+        <v>15.5</v>
       </c>
       <c r="E52">
-        <v>20.459154827298406</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -11900,16 +11908,16 @@
         <v>8</v>
       </c>
       <c r="B53">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="C53">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D53">
-        <v>20.459154827298406</v>
+        <v>16.5</v>
       </c>
       <c r="E53">
-        <v>21.059154827298407</v>
+        <v>16.75</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -11917,16 +11925,16 @@
         <v>8</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D54">
-        <v>21.059154827298407</v>
+        <v>16.75</v>
       </c>
       <c r="E54">
-        <v>21.271286861654371</v>
+        <v>17.75</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -11934,16 +11942,16 @@
         <v>8</v>
       </c>
       <c r="B55">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="C55">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D55">
-        <v>21.271286861654371</v>
+        <v>17.75</v>
       </c>
       <c r="E55">
-        <v>22.171286861654369</v>
+        <v>18.041666666666668</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -11951,21 +11959,21 @@
         <v>8</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D56">
-        <v>22.171286861654369</v>
+        <v>18.041666666666668</v>
       </c>
       <c r="E56">
-        <v>24.135736530136615</v>
+        <v>19.041666666666668</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -11974,32 +11982,32 @@
         <v>0</v>
       </c>
       <c r="D57">
-        <v>23.186856161097825</v>
+        <v>19.041666666666668</v>
       </c>
       <c r="E57">
-        <v>25.25</v>
+        <v>19.173611111111111</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B58">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C58">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D58">
-        <v>25.25</v>
+        <v>19.173611111111111</v>
       </c>
       <c r="E58">
-        <v>26.15</v>
+        <v>20.173611111111111</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -12008,100 +12016,100 @@
         <v>0</v>
       </c>
       <c r="D59">
-        <v>26.15</v>
+        <v>20.173611111111111</v>
       </c>
       <c r="E59">
-        <v>28.213143838902173</v>
+        <v>20.388888888888889</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B60">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D60">
-        <v>25.829674563573473</v>
+        <v>20.388888888888889</v>
       </c>
       <c r="E60">
-        <v>28</v>
+        <v>21.388888888888889</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B61">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="C61">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D61">
-        <v>28</v>
+        <v>21.388888888888889</v>
       </c>
       <c r="E61">
-        <v>28.9</v>
+        <v>25.25</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B62">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C62">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D62">
-        <v>28</v>
+        <v>25.25</v>
       </c>
       <c r="E62">
-        <v>28.9</v>
+        <v>26.25</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B63">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D63">
-        <v>30.197324836428635</v>
+        <v>18.25</v>
       </c>
       <c r="E63">
-        <v>31.25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B64">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="C64">
         <v>5</v>
       </c>
       <c r="D64">
-        <v>31.25</v>
+        <v>20</v>
       </c>
       <c r="E64">
-        <v>32.15</v>
+        <v>21.75</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -12110,27 +12118,27 @@
         <v>0</v>
       </c>
       <c r="D65">
-        <v>33.65</v>
+        <v>21.75</v>
       </c>
       <c r="E65">
-        <v>34.25</v>
+        <v>21.875</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B66">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="C66">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D66">
-        <v>34.25</v>
+        <v>21.875</v>
       </c>
       <c r="E66">
-        <v>35.15</v>
+        <v>29.875</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -12138,16 +12146,16 @@
         <v>10</v>
       </c>
       <c r="B67">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D67">
-        <v>35.15</v>
+        <v>26</v>
       </c>
       <c r="E67">
-        <v>35.468198051533946</v>
+        <v>27</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -12155,16 +12163,16 @@
         <v>10</v>
       </c>
       <c r="B68">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="C68">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D68">
-        <v>35.468198051533946</v>
+        <v>27</v>
       </c>
       <c r="E68">
-        <v>36.068198051533948</v>
+        <v>27.104166666666668</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -12172,16 +12180,16 @@
         <v>10</v>
       </c>
       <c r="B69">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D69">
-        <v>36.068198051533948</v>
+        <v>27.104166666666668</v>
       </c>
       <c r="E69">
-        <v>36.293198051533949</v>
+        <v>28.104166666666668</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -12189,16 +12197,16 @@
         <v>10</v>
       </c>
       <c r="B70">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="C70">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D70">
-        <v>36.293198051533949</v>
+        <v>28.104166666666668</v>
       </c>
       <c r="E70">
-        <v>37.193198051533948</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -12206,118 +12214,118 @@
         <v>10</v>
       </c>
       <c r="B71">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="C71">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D71">
-        <v>37.193198051533948</v>
+        <v>31.25</v>
       </c>
       <c r="E71">
-        <v>39.325171902217861</v>
+        <v>32.25</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B72">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="C72">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D72">
-        <v>26.5</v>
+        <v>31.75</v>
       </c>
       <c r="E72">
-        <v>28.580414622136654</v>
+        <v>32.75</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B73">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D73">
-        <v>28.580414622136654</v>
+        <v>32.75</v>
       </c>
       <c r="E73">
-        <v>34.980414622136657</v>
+        <v>34.25</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B74">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D74">
-        <v>34.980414622136657</v>
+        <v>34.25</v>
       </c>
       <c r="E74">
-        <v>37.060829244273314</v>
+        <v>35.75</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B75">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="C75">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D75">
-        <v>28.050497215277961</v>
+        <v>28</v>
       </c>
       <c r="E75">
-        <v>30.25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B76">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C76">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D76">
-        <v>30.25</v>
+        <v>29</v>
       </c>
       <c r="E76">
-        <v>31.15</v>
+        <v>29.25</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B77">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="C77">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D77">
-        <v>31.15</v>
+        <v>29.25</v>
       </c>
       <c r="E77">
-        <v>32.136470982847442</v>
+        <v>37.25</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -12325,16 +12333,16 @@
         <v>12</v>
       </c>
       <c r="B78">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="C78">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D78">
-        <v>32.136470982847442</v>
+        <v>27.5</v>
       </c>
       <c r="E78">
-        <v>33.03647098284744</v>
+        <v>35.5</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -12348,10 +12356,10 @@
         <v>0</v>
       </c>
       <c r="D79">
-        <v>33.394868431175645</v>
+        <v>35.5</v>
       </c>
       <c r="E79">
-        <v>34.25</v>
+        <v>35.743055555555557</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -12365,27 +12373,27 @@
         <v>5</v>
       </c>
       <c r="D80">
-        <v>34.25</v>
+        <v>35.743055555555557</v>
       </c>
       <c r="E80">
-        <v>35.15</v>
+        <v>37.243055555555557</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B81">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C81">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D81">
-        <v>35.15</v>
+        <v>30.5</v>
       </c>
       <c r="E81">
-        <v>37.088507802408849</v>
+        <v>31.5</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -12399,10 +12407,10 @@
         <v>0</v>
       </c>
       <c r="D82">
-        <v>30.5</v>
+        <v>31.5</v>
       </c>
       <c r="E82">
-        <v>32.580414622136658</v>
+        <v>31.638888888888889</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -12410,16 +12418,16 @@
         <v>13</v>
       </c>
       <c r="B83">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="C83">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D83">
-        <v>32.580414622136658</v>
+        <v>31.638888888888889</v>
       </c>
       <c r="E83">
-        <v>38.980414622136657</v>
+        <v>33.138888888888886</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -12433,61 +12441,231 @@
         <v>0</v>
       </c>
       <c r="D84">
-        <v>38.980414622136657</v>
+        <v>33.138888888888886</v>
       </c>
       <c r="E84">
-        <v>41.060829244273314</v>
+        <v>33.75</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B85">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D85">
-        <v>31.5</v>
+        <v>33.75</v>
       </c>
       <c r="E85">
-        <v>33.005199322349036</v>
+        <v>34.75</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B86">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="C86">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D86">
-        <v>33.005199322349036</v>
+        <v>34.75</v>
       </c>
       <c r="E86">
-        <v>39.405199322349034</v>
+        <v>34.993055555555557</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
+        <v>13</v>
+      </c>
+      <c r="B87">
+        <v>19</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87">
+        <v>34.993055555555557</v>
+      </c>
+      <c r="E87">
+        <v>42.993055555555557</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88">
         <v>14</v>
       </c>
-      <c r="B87">
-        <v>0</v>
-      </c>
-      <c r="C87">
-        <v>0</v>
-      </c>
-      <c r="D87">
-        <v>39.405199322349034</v>
-      </c>
-      <c r="E87">
-        <v>40.91039864469807</v>
+      <c r="B88">
+        <v>54</v>
+      </c>
+      <c r="C88">
+        <v>4</v>
+      </c>
+      <c r="D88">
+        <v>31.5</v>
+      </c>
+      <c r="E88">
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>14</v>
+      </c>
+      <c r="B89">
+        <v>55</v>
+      </c>
+      <c r="C89">
+        <v>5</v>
+      </c>
+      <c r="D89">
+        <v>31.5</v>
+      </c>
+      <c r="E89">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>14</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>33</v>
+      </c>
+      <c r="E90">
+        <v>34.25</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>14</v>
+      </c>
+      <c r="B91">
+        <v>43</v>
+      </c>
+      <c r="C91">
+        <v>4</v>
+      </c>
+      <c r="D91">
+        <v>34.25</v>
+      </c>
+      <c r="E91">
+        <v>35.25</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>14</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>35.25</v>
+      </c>
+      <c r="E92">
+        <v>35.465277777777779</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>14</v>
+      </c>
+      <c r="B93">
+        <v>29</v>
+      </c>
+      <c r="C93">
+        <v>2</v>
+      </c>
+      <c r="D93">
+        <v>35.465277777777779</v>
+      </c>
+      <c r="E93">
+        <v>43.465277777777779</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>14</v>
+      </c>
+      <c r="B94">
+        <v>0</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <v>33</v>
+      </c>
+      <c r="E94">
+        <v>34.25</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>14</v>
+      </c>
+      <c r="B95">
+        <v>43</v>
+      </c>
+      <c r="C95">
+        <v>4</v>
+      </c>
+      <c r="D95">
+        <v>34.25</v>
+      </c>
+      <c r="E95">
+        <v>35.25</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>14</v>
+      </c>
+      <c r="B96">
+        <v>0</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>35.25</v>
+      </c>
+      <c r="E96">
+        <v>35.465277777777779</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>14</v>
+      </c>
+      <c r="B97">
+        <v>29</v>
+      </c>
+      <c r="C97">
+        <v>2</v>
+      </c>
+      <c r="D97">
+        <v>35.465277777777779</v>
+      </c>
+      <c r="E97">
+        <v>43.465277777777779</v>
       </c>
     </row>
   </sheetData>
